--- a/va_facility_data_2025-02-20/Clark County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clark%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Clark County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clark%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rbbc89c5effd7406b8d07d42afa539c89"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd8dde5062d724a3088f5d8a31785b53f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3eb2954b71da42289106cfcfc0fd28f6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R72fe3cc1faee4fdb87e2a1c5f6b6e640"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5819b90a206847bba8b09bc7180ea0fa"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re70e6260cb764593a741bacff9aa0e20"/>
   </x:sheets>
 </x:workbook>
 </file>
